--- a/final_tools.xlsx
+++ b/final_tools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/我的云端硬盘/IEEE Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CAEAA8-4677-0943-89DA-AA1CA8AE9801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966C86A8-73D0-914A-9AC0-6977F2B0454D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="1460" windowWidth="34760" windowHeight="24380" xr2:uid="{2F70DB04-B174-7F4C-AE5B-A5967DBC29A9}"/>
+    <workbookView xWindow="4860" yWindow="1040" windowWidth="34760" windowHeight="24380" xr2:uid="{2F70DB04-B174-7F4C-AE5B-A5967DBC29A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
   <si>
     <t>Category</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Architectural, Design, Code, Security</t>
   </si>
   <si>
-    <t>Jsprit</t>
-  </si>
-  <si>
     <t>Free</t>
   </si>
   <si>
@@ -120,31 +117,19 @@
     <t>Algorithm</t>
   </si>
   <si>
-    <t>Codescene</t>
-  </si>
-  <si>
     <t>Independent</t>
   </si>
   <si>
     <t>Cost-Benefit</t>
   </si>
   <si>
-    <t>Squore</t>
-  </si>
-  <si>
     <t>Windows, Linux</t>
   </si>
   <si>
     <t>Design, Code</t>
   </si>
   <si>
-    <t>SonarQube</t>
-  </si>
-  <si>
     <t>Commerical and free</t>
-  </si>
-  <si>
-    <t>AnaConDebt</t>
   </si>
   <si>
     <t>?</t>
@@ -363,6 +348,62 @@
   </si>
   <si>
     <t>SymfonyInsight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jsprit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Codescene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Squore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.vector.com/int/en/products/products-a-z/software/squore/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SonarQube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sonarqube.org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnaConDebt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://anacondebt.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://insight.symfony.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.castsoftware.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sites.google.com/site/santiagoavidal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://codescene.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,7 +479,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -461,17 +502,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -481,7 +511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -494,9 +524,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -506,11 +533,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -829,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B91521-B905-AA4A-8759-ED1B1202CDCB}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -879,13 +915,16 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="34">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -902,26 +941,26 @@
       <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>46</v>
+      <c r="I2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="34">
       <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
@@ -938,28 +977,28 @@
       <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>43</v>
+      <c r="H3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>47</v>
+      <c r="K3" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="62" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -976,26 +1015,26 @@
       <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>48</v>
+      <c r="H4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>76</v>
+      <c r="K4" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="51">
       <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
@@ -1012,23 +1051,26 @@
       <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>65</v>
+      <c r="I5" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>49</v>
+      <c r="K5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="68">
       <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1037,36 +1079,39 @@
         <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>66</v>
+      <c r="H6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="34">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>13</v>
@@ -1080,28 +1125,31 @@
       <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="H7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>51</v>
+      <c r="K7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="85">
       <c r="A8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
@@ -1115,23 +1163,26 @@
       <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>68</v>
+      <c r="H8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>52</v>
+        <v>30</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="85">
       <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>12</v>
@@ -1140,7 +1191,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F9" s="3">
         <v>26</v>
@@ -1148,61 +1199,67 @@
       <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>68</v>
+      <c r="H9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>53</v>
+        <v>66</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="51">
       <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>69</v>
+      <c r="H10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>54</v>
+        <v>33</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="34">
-      <c r="A11" s="4" t="s">
-        <v>73</v>
+      <c r="A11" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>13</v>
@@ -1211,30 +1268,33 @@
         <v>14</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>42</v>
+      <c r="H11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>55</v>
+        <v>35</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="51">
-      <c r="A12" s="4" t="s">
-        <v>74</v>
+      <c r="A12" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>16</v>
@@ -1246,25 +1306,25 @@
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>70</v>
+      <c r="H12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" t="s">
-        <v>85</v>
+      <c r="K12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1277,6 +1337,13 @@
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1" xr:uid="{680E34F4-39E6-6E47-8E7A-BDED956D1EC9}"/>
     <hyperlink ref="L3" r:id="rId2" xr:uid="{067F4909-33EE-A347-8D64-33205D6CD8D7}"/>
+    <hyperlink ref="L8" r:id="rId3" xr:uid="{9913F6F7-9985-A641-8B7D-12E3E96450E8}"/>
+    <hyperlink ref="L9" r:id="rId4" xr:uid="{90DE0596-624B-5B4C-9163-B367FC69D93A}"/>
+    <hyperlink ref="L10" r:id="rId5" xr:uid="{6284AD27-84EE-1946-9332-2D2CA5EDF121}"/>
+    <hyperlink ref="L11" r:id="rId6" xr:uid="{88F5546E-E1D5-6E4B-88DE-D6817C082D39}"/>
+    <hyperlink ref="L5" r:id="rId7" xr:uid="{DFC7993E-994B-3D43-9C08-C15E6CE0EF0A}"/>
+    <hyperlink ref="L6" r:id="rId8" xr:uid="{9EEF4334-A5C1-914C-A7D0-6D1C526E3585}"/>
+    <hyperlink ref="L7" r:id="rId9" xr:uid="{ACD6759E-99DD-EA46-A266-CA33B77116E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
